--- a/ComputerConfigurator/Resources/RAM.xlsx
+++ b/ComputerConfigurator/Resources/RAM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="-165" yWindow="960" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>Название</t>
   </si>
@@ -122,18 +122,6 @@
     <t>Patriot Memory</t>
   </si>
   <si>
-    <t>JRam [JAL1G800D2] 1 ГБ</t>
-  </si>
-  <si>
-    <t>DDR2</t>
-  </si>
-  <si>
-    <t>Jram</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/d79d39ab506f3361/operativnaa-pamat-jram-jal1g800d2-1-gb/</t>
-  </si>
-  <si>
     <t>A-Data XPG Gammix D10 [AX4U266638G16-SBG] 8 ГБ</t>
   </si>
   <si>
@@ -219,10 +207,7 @@
     <t>https://www.dns-shop.ru/product/b754d534a8303361/operativnaa-pamat-kingston-valueram-kvr16n11s62-2-gb/characteristics/</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end
+    <t xml:space="preserve">Goodram IRDM X [IR-X2666D464L16S/4G] 4 ГБ
 </t>
   </si>
 </sst>
@@ -592,7 +577,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,7 +645,7 @@
     </row>
     <row r="3" spans="1:8" ht="28.15" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4">
         <v>1999</v>
@@ -841,40 +826,40 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>34</v>
+      <c r="A10" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B10" s="4">
-        <v>750</v>
+        <v>1499</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4">
         <v>3499</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -889,18 +874,18 @@
         <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4">
         <v>4399</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -912,18 +897,18 @@
         <v>12</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4">
         <v>79999</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -938,18 +923,18 @@
         <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4">
         <v>30999</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -964,12 +949,12 @@
         <v>10</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4">
         <v>18799</v>
@@ -990,18 +975,18 @@
         <v>10</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4">
         <v>16799</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1016,12 +1001,12 @@
         <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4">
         <v>9299</v>
@@ -1042,12 +1027,12 @@
         <v>10</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4">
         <v>4099</v>
@@ -1068,18 +1053,18 @@
         <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4">
         <v>3299</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1094,18 +1079,18 @@
         <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" s="4">
         <v>2499</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1120,62 +1105,33 @@
         <v>10</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1499</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
+      <c r="A22" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H13" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-    <hyperlink ref="H17" r:id="rId16"/>
-    <hyperlink ref="H18" r:id="rId17"/>
-    <hyperlink ref="H19" r:id="rId18"/>
-    <hyperlink ref="H20" r:id="rId19"/>
-    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H6" r:id="rId4"/>
+    <hyperlink ref="H7" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId6"/>
+    <hyperlink ref="H9" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H15" r:id="rId12"/>
+    <hyperlink ref="H16" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId14"/>
+    <hyperlink ref="H18" r:id="rId15"/>
+    <hyperlink ref="H19" r:id="rId16"/>
+    <hyperlink ref="H20" r:id="rId17"/>
+    <hyperlink ref="H10" r:id="rId18"/>
+    <hyperlink ref="H2" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
